--- a/Experiments/221218_ATP_regen/buffers-mt.xlsx
+++ b/Experiments/221218_ATP_regen/buffers-mt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/221218_ATP_regen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F407A8-8E8B-2240-823F-8CCCAD9E58DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A1A0DE-EAD4-9346-831D-94B81DFFFCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Biotin</t>
   </si>
@@ -66,25 +66,16 @@
     <t>AMP</t>
   </si>
   <si>
-    <t>Pyruvate</t>
+    <t>PaPpk</t>
   </si>
   <si>
-    <t>Malate</t>
+    <t>PaGFP</t>
   </si>
   <si>
-    <t>Succinate</t>
+    <t>Pa0</t>
   </si>
   <si>
-    <t>Citrate</t>
-  </si>
-  <si>
-    <t>Std_121322</t>
-  </si>
-  <si>
-    <t>ppk_plus</t>
-  </si>
-  <si>
-    <t>ppk_minus</t>
+    <t>0Ppk</t>
   </si>
 </sst>
 </file>
@@ -141,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,20 +353,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U994"/>
+  <dimension ref="A1:S994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="28" width="8.6640625" customWidth="1"/>
+    <col min="1" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -415,29 +405,23 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
+      <c r="S1" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -447,9 +431,7 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2">
         <v>1</v>
       </c>
@@ -480,22 +462,19 @@
       <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="2">
+      <c r="Q2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -527,20 +506,19 @@
       <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="T3" s="2">
+      <c r="P3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>
@@ -571,11 +549,11 @@
       <c r="N4" s="2">
         <v>1</v>
       </c>
-      <c r="T4" s="2">
+      <c r="Q4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -585,8 +563,8 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <v>10</v>
+      <c r="D5">
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -618,77 +596,364 @@
       <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="U5" s="2">
+      <c r="Q5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="Q6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
